--- a/dietary_reference_intakes.xlsx
+++ b/dietary_reference_intakes.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ganpeijie/Documents/GitHub/nutrition_bot/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBBAE57-F7B8-2F43-9011-39C51AC0AF64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - dietary_reference_int" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - dietary_reference_int" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
   <si>
     <t>dietary_reference_intakes</t>
   </si>
@@ -98,9 +107,6 @@
   </si>
   <si>
     <t>女</t>
-  </si>
-  <si>
-    <t>男/女</t>
   </si>
   <si>
     <t>1Y</t>
@@ -136,11 +142,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -152,7 +155,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -293,49 +296,49 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -345,26 +348,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -563,7 +625,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -582,7 +644,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -612,7 +674,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -638,7 +700,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -664,7 +726,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -690,7 +752,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -716,7 +778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -742,7 +804,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -768,7 +830,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -794,7 +856,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -820,7 +882,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,9 +895,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -852,7 +920,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -871,7 +939,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -897,7 +965,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -923,7 +991,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -949,7 +1017,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -975,7 +1043,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +1069,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1027,7 +1095,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,7 +1121,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,7 +1147,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1173,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,9 +1186,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1134,7 +1208,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1153,7 +1227,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,7 +1257,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1209,7 +1283,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1235,7 +1309,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,7 +1335,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +1361,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1313,7 +1387,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1339,7 +1413,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1365,7 +1439,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1391,7 +1465,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,1337 +1478,1666 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AF14"/>
+  <dimension ref="A1:JD14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AO9" sqref="AO9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
-    <col min="3" max="5" width="7.67188" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="1" customWidth="1"/>
-    <col min="7" max="9" width="7.67188" style="1" customWidth="1"/>
-    <col min="10" max="13" width="8.5" style="1" customWidth="1"/>
-    <col min="14" max="15" width="6.5" style="1" customWidth="1"/>
-    <col min="16" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="9.5" style="1" customWidth="1"/>
-    <col min="20" max="22" width="5.35156" style="1" customWidth="1"/>
-    <col min="23" max="24" width="4.35156" style="1" customWidth="1"/>
-    <col min="25" max="28" width="3.85156" style="1" customWidth="1"/>
-    <col min="29" max="29" width="5.35156" style="1" customWidth="1"/>
-    <col min="30" max="31" width="5.17188" style="1" customWidth="1"/>
-    <col min="32" max="32" width="5.35156" style="1" customWidth="1"/>
-    <col min="33" max="256" width="8.35156" style="1" customWidth="1"/>
+    <col min="3" max="7" width="7.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="1" customWidth="1"/>
+    <col min="9" max="12" width="7.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16" width="8.5" style="1" customWidth="1"/>
+    <col min="17" max="18" width="6.5" style="1" customWidth="1"/>
+    <col min="19" max="20" width="8.5" style="1" customWidth="1"/>
+    <col min="21" max="23" width="9.5" style="1" customWidth="1"/>
+    <col min="24" max="28" width="5.33203125" style="1" customWidth="1"/>
+    <col min="29" max="30" width="4.33203125" style="1" customWidth="1"/>
+    <col min="31" max="35" width="3.83203125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="5.33203125" style="1" customWidth="1"/>
+    <col min="37" max="39" width="5.1640625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="5.33203125" style="1" customWidth="1"/>
+    <col min="41" max="264" width="8.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:40" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s" s="3">
+      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s" s="3">
+      <c r="O2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s" s="3">
+      <c r="P2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="P2" t="s" s="3">
+      <c r="Q2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" t="s" s="3">
+      <c r="T2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" t="s" s="3">
+      <c r="U2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S2" t="s" s="3">
+      <c r="V2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T2" t="s" s="3">
+      <c r="W2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U2" t="s" s="3">
+      <c r="X2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V2" t="s" s="3">
+      <c r="Z2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W2" t="s" s="3">
+      <c r="AB2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X2" t="s" s="3">
+      <c r="AD2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" t="s" s="3">
+      <c r="AE2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" t="s" s="3">
+      <c r="AF2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" t="s" s="3">
+      <c r="AG2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" t="s" s="3">
+      <c r="AH2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" t="s" s="3">
+      <c r="AI2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AD2" t="s" s="3">
+      <c r="AJ2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AE2" t="s" s="3">
+      <c r="AL2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" t="s" s="3">
+      <c r="AM2" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="AN2" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s" s="5">
+    <row r="3" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s" s="6">
+      <c r="H3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s" s="6">
+      <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s" s="6">
+      <c r="L3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s" s="6">
+      <c r="M3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s" s="6">
+      <c r="N3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M3" t="s" s="6">
+      <c r="O3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N3" t="s" s="6">
+      <c r="P3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O3" t="s" s="6">
+      <c r="R3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P3" t="s" s="6">
+      <c r="S3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" t="s" s="6">
+      <c r="T3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R3" t="s" s="6">
+      <c r="U3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S3" t="s" s="6">
+      <c r="V3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T3" t="s" s="6">
+      <c r="W3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U3" t="s" s="6">
+      <c r="X3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="V3" t="s" s="6">
+      <c r="Z3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="W3" t="s" s="6">
+      <c r="AA3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="X3" t="s" s="6">
+      <c r="AB3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" t="s" s="6">
+      <c r="AC3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" t="s" s="6">
+      <c r="AD3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" t="s" s="6">
+      <c r="AE3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" t="s" s="6">
+      <c r="AF3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AC3" t="s" s="6">
+      <c r="AG3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AD3" t="s" s="6">
+      <c r="AJ3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" t="s" s="6">
+      <c r="AL3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AF3" t="s" s="6">
+      <c r="AM3" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="AN3" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" t="s" s="8">
+    <row r="4" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="C4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s" s="9">
+      <c r="E4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="P4" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="Q4" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="R4" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="S4" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="T4" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="U4" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="V4" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="W4" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="X4" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="Y4" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="Z4" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="AA4" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="AB4" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="AC4" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="AD4" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="AE4" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="AF4" t="s" s="9">
-        <v>29</v>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11">
+        <v>400</v>
+      </c>
+      <c r="D5" s="11">
+        <v>400</v>
+      </c>
+      <c r="E5" s="11">
+        <v>10</v>
+      </c>
+      <c r="F5" s="11">
+        <v>10</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>5</v>
+      </c>
+      <c r="I5" s="11">
+        <v>30</v>
+      </c>
+      <c r="J5" s="11">
+        <v>30</v>
+      </c>
+      <c r="K5" s="11">
+        <v>40</v>
+      </c>
+      <c r="L5" s="11">
+        <v>40</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>9</v>
+      </c>
+      <c r="R5" s="11">
+        <v>9</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="V5" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="W5" s="11">
+        <v>170</v>
+      </c>
+      <c r="X5" s="11">
+        <v>170</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>500</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>500</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>400</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>400</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>80</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>80</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="11">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>65</v>
+      </c>
+      <c r="AJ5" s="11">
+        <v>65</v>
+      </c>
+      <c r="AK5" s="11">
+        <v>1500</v>
+      </c>
+      <c r="AL5" s="11">
+        <v>1500</v>
+      </c>
+      <c r="AM5" s="11">
+        <v>1300</v>
+      </c>
+      <c r="AN5" s="11">
+        <v>1300</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="10">
+    <row r="6" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
         <v>400</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D6" s="11">
         <v>400</v>
       </c>
-      <c r="E5" s="12">
-        <v>10</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="E6" s="11">
+        <v>10</v>
+      </c>
+      <c r="F6" s="11">
+        <v>10</v>
+      </c>
+      <c r="G6" s="11">
+        <v>6</v>
+      </c>
+      <c r="H6" s="11">
+        <v>6</v>
+      </c>
+      <c r="I6" s="11">
+        <v>55</v>
+      </c>
+      <c r="J6" s="11">
+        <v>55</v>
+      </c>
+      <c r="K6" s="11">
+        <v>50</v>
+      </c>
+      <c r="L6" s="11">
+        <v>50</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="O6" s="11">
+        <v>1</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>12</v>
+      </c>
+      <c r="R6" s="11">
+        <v>11</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="T6" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="U6" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="V6" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="W6" s="11">
+        <v>200</v>
+      </c>
+      <c r="X6" s="11">
+        <v>200</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>600</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>600</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>500</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>500</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>120</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>120</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="11">
         <v>5</v>
       </c>
-      <c r="G5" s="12">
-        <v>30</v>
-      </c>
-      <c r="H5" s="12">
-        <v>30</v>
-      </c>
-      <c r="I5" s="12">
-        <v>40</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="N5" s="12">
-        <v>9</v>
-      </c>
-      <c r="O5" s="12">
-        <v>9</v>
-      </c>
-      <c r="P5" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="12">
+      <c r="AH6" s="11">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>90</v>
+      </c>
+      <c r="AJ6" s="11">
+        <v>90</v>
+      </c>
+      <c r="AK6" s="11">
+        <v>2100</v>
+      </c>
+      <c r="AL6" s="11">
+        <v>1900</v>
+      </c>
+      <c r="AM6" s="11">
+        <v>1700</v>
+      </c>
+      <c r="AN6" s="11">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
+        <v>400</v>
+      </c>
+      <c r="D7" s="11">
+        <v>400</v>
+      </c>
+      <c r="E7" s="11">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11">
+        <v>8</v>
+      </c>
+      <c r="H7" s="11">
+        <v>8</v>
+      </c>
+      <c r="I7" s="11">
+        <v>55</v>
+      </c>
+      <c r="J7" s="11">
+        <v>55</v>
+      </c>
+      <c r="K7" s="11">
+        <v>60</v>
+      </c>
+      <c r="L7" s="11">
+        <v>60</v>
+      </c>
+      <c r="M7" s="11">
+        <v>1</v>
+      </c>
+      <c r="N7" s="11">
         <v>0.9</v>
       </c>
-      <c r="S5" s="12">
+      <c r="O7" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="P7" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>14</v>
+      </c>
+      <c r="R7" s="11">
+        <v>12</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="T7" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="U7" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="V7" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="W7" s="11">
+        <v>250</v>
+      </c>
+      <c r="X7" s="11">
+        <v>250</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>800</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>800</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>600</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>600</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>170</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>170</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>10</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>10</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>8</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>8</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>100</v>
+      </c>
+      <c r="AJ7" s="11">
+        <v>100</v>
+      </c>
+      <c r="AK7" s="11">
+        <v>2400</v>
+      </c>
+      <c r="AL7" s="11">
+        <v>2200</v>
+      </c>
+      <c r="AM7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="AN7" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
+        <v>500</v>
+      </c>
+      <c r="D8" s="11">
+        <v>500</v>
+      </c>
+      <c r="E8" s="11">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11">
+        <v>10</v>
+      </c>
+      <c r="H8" s="11">
+        <v>10</v>
+      </c>
+      <c r="I8" s="11">
+        <v>60</v>
+      </c>
+      <c r="J8" s="11">
+        <v>60</v>
+      </c>
+      <c r="K8" s="11">
+        <v>80</v>
+      </c>
+      <c r="L8" s="11">
+        <v>80</v>
+      </c>
+      <c r="M8" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N8" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O8" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="P8" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>15</v>
+      </c>
+      <c r="R8" s="11">
+        <v>15</v>
+      </c>
+      <c r="S8" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="T8" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="U8" s="11">
+        <v>2</v>
+      </c>
+      <c r="V8" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W8" s="11">
+        <v>300</v>
+      </c>
+      <c r="X8" s="11">
+        <v>300</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>1000</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>800</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>800</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>230</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>230</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>15</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>15</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>10</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>10</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>120</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>120</v>
+      </c>
+      <c r="AK8" s="11">
+        <v>2700</v>
+      </c>
+      <c r="AL8" s="11">
+        <v>2500</v>
+      </c>
+      <c r="AM8" s="11">
+        <v>2300</v>
+      </c>
+      <c r="AN8" s="11">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11">
+        <v>600</v>
+      </c>
+      <c r="D9" s="11">
+        <v>500</v>
+      </c>
+      <c r="E9" s="11">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11">
+        <v>10</v>
+      </c>
+      <c r="G9" s="11">
+        <v>12</v>
+      </c>
+      <c r="H9" s="11">
+        <v>12</v>
+      </c>
+      <c r="I9" s="11">
+        <v>75</v>
+      </c>
+      <c r="J9" s="11">
+        <v>75</v>
+      </c>
+      <c r="K9" s="11">
+        <v>100</v>
+      </c>
+      <c r="L9" s="11">
+        <v>100</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="N9" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O9" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="P9" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>18</v>
+      </c>
+      <c r="R9" s="11">
+        <v>15</v>
+      </c>
+      <c r="S9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="T9" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="U9" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="V9" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="W9" s="11">
+        <v>400</v>
+      </c>
+      <c r="X9" s="11">
+        <v>400</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>1200</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>1200</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>350</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>320</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>15</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>15</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>15</v>
+      </c>
+      <c r="AH9" s="11">
+        <v>12</v>
+      </c>
+      <c r="AI9" s="11">
+        <v>150</v>
+      </c>
+      <c r="AJ9" s="11">
+        <v>150</v>
+      </c>
+      <c r="AK9" s="11">
+        <v>2800</v>
+      </c>
+      <c r="AL9" s="11">
+        <v>2500</v>
+      </c>
+      <c r="AM9" s="11">
+        <v>2300</v>
+      </c>
+      <c r="AN9" s="11">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11">
+        <v>700</v>
+      </c>
+      <c r="D10" s="11">
+        <v>500</v>
+      </c>
+      <c r="E10" s="11">
+        <v>10</v>
+      </c>
+      <c r="F10" s="11">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11">
+        <v>13</v>
+      </c>
+      <c r="H10" s="11">
+        <v>13</v>
+      </c>
+      <c r="I10" s="11">
+        <v>75</v>
+      </c>
+      <c r="J10" s="11">
+        <v>75</v>
+      </c>
+      <c r="K10" s="11">
+        <v>100</v>
+      </c>
+      <c r="L10" s="11">
+        <v>100</v>
+      </c>
+      <c r="M10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="N10" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O10" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="P10" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>18</v>
+      </c>
+      <c r="R10" s="11">
+        <v>15</v>
+      </c>
+      <c r="S10" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="T10" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="U10" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="V10" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="W10" s="11">
+        <v>400</v>
+      </c>
+      <c r="X10" s="11">
+        <v>400</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>1200</v>
+      </c>
+      <c r="Z10" s="11">
+        <v>1200</v>
+      </c>
+      <c r="AA10" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AB10" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AC10" s="11">
+        <v>390</v>
+      </c>
+      <c r="AD10" s="11">
+        <v>330</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>15</v>
+      </c>
+      <c r="AF10" s="11">
+        <v>15</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>15</v>
+      </c>
+      <c r="AH10" s="11">
+        <v>12</v>
+      </c>
+      <c r="AI10" s="11">
+        <v>150</v>
+      </c>
+      <c r="AJ10" s="11">
+        <v>150</v>
+      </c>
+      <c r="AK10" s="11">
+        <v>2800</v>
+      </c>
+      <c r="AL10" s="11">
+        <v>2500</v>
+      </c>
+      <c r="AM10" s="11">
+        <v>2300</v>
+      </c>
+      <c r="AN10" s="11">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11">
+        <v>600</v>
+      </c>
+      <c r="D11" s="11">
+        <v>500</v>
+      </c>
+      <c r="E11" s="11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11">
+        <v>12</v>
+      </c>
+      <c r="H11" s="11">
+        <v>12</v>
+      </c>
+      <c r="I11" s="11">
+        <v>120</v>
+      </c>
+      <c r="J11" s="11">
+        <v>90</v>
+      </c>
+      <c r="K11" s="11">
+        <v>100</v>
+      </c>
+      <c r="L11" s="11">
+        <v>100</v>
+      </c>
+      <c r="M11" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="N11" s="11">
         <v>0.9</v>
       </c>
-      <c r="T5" s="12">
-        <v>170</v>
-      </c>
-      <c r="U5" s="12">
+      <c r="O11" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="P11" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>16</v>
+      </c>
+      <c r="R11" s="11">
+        <v>14</v>
+      </c>
+      <c r="S11" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="T11" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="U11" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="V11" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="W11" s="11">
+        <v>400</v>
+      </c>
+      <c r="X11" s="11">
+        <v>400</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>1000</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>800</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>800</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>380</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>320</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>15</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>15</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>12</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>150</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>150</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>2800</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>2500</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>2300</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
+        <v>600</v>
+      </c>
+      <c r="D12" s="11">
         <v>500</v>
       </c>
-      <c r="V5" s="12">
+      <c r="E12" s="11">
+        <v>10</v>
+      </c>
+      <c r="F12" s="11">
+        <v>10</v>
+      </c>
+      <c r="G12" s="11">
+        <v>12</v>
+      </c>
+      <c r="H12" s="11">
+        <v>12</v>
+      </c>
+      <c r="I12" s="11">
+        <v>120</v>
+      </c>
+      <c r="J12" s="11">
+        <v>90</v>
+      </c>
+      <c r="K12" s="11">
+        <v>100</v>
+      </c>
+      <c r="L12" s="11">
+        <v>100</v>
+      </c>
+      <c r="M12" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="O12" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="P12" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>16</v>
+      </c>
+      <c r="R12" s="11">
+        <v>14</v>
+      </c>
+      <c r="S12" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="T12" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="U12" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="V12" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="W12" s="11">
         <v>400</v>
       </c>
-      <c r="W5" s="12">
-        <v>80</v>
-      </c>
-      <c r="X5" s="12">
-        <v>80</v>
-      </c>
-      <c r="Y5" s="12">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="12">
-        <v>10</v>
-      </c>
-      <c r="AA5" s="12">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="12">
-        <v>5</v>
-      </c>
-      <c r="AC5" s="12">
-        <v>65</v>
-      </c>
-      <c r="AD5" s="12">
-        <v>1500</v>
-      </c>
-      <c r="AE5" s="12">
-        <v>1500</v>
-      </c>
-      <c r="AF5" s="12">
-        <v>1300</v>
+      <c r="X12" s="11">
+        <v>400</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>1000</v>
+      </c>
+      <c r="Z12" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>800</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>800</v>
+      </c>
+      <c r="AC12" s="11">
+        <v>380</v>
+      </c>
+      <c r="AD12" s="11">
+        <v>320</v>
+      </c>
+      <c r="AE12" s="11">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="11">
+        <v>15</v>
+      </c>
+      <c r="AG12" s="11">
+        <v>15</v>
+      </c>
+      <c r="AH12" s="11">
+        <v>12</v>
+      </c>
+      <c r="AI12" s="11">
+        <v>150</v>
+      </c>
+      <c r="AJ12" s="11">
+        <v>150</v>
+      </c>
+      <c r="AK12" s="11">
+        <v>2800</v>
+      </c>
+      <c r="AL12" s="11">
+        <v>2500</v>
+      </c>
+      <c r="AM12" s="11">
+        <v>2300</v>
+      </c>
+      <c r="AN12" s="11">
+        <v>2300</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12">
+    <row r="13" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11">
+        <v>600</v>
+      </c>
+      <c r="D13" s="11">
+        <v>500</v>
+      </c>
+      <c r="E13" s="11">
+        <v>15</v>
+      </c>
+      <c r="F13" s="11">
+        <v>15</v>
+      </c>
+      <c r="G13" s="11">
+        <v>12</v>
+      </c>
+      <c r="H13" s="11">
+        <v>12</v>
+      </c>
+      <c r="I13" s="11">
+        <v>120</v>
+      </c>
+      <c r="J13" s="11">
+        <v>90</v>
+      </c>
+      <c r="K13" s="11">
+        <v>100</v>
+      </c>
+      <c r="L13" s="11">
+        <v>100</v>
+      </c>
+      <c r="M13" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="O13" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="P13" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>16</v>
+      </c>
+      <c r="R13" s="11">
+        <v>14</v>
+      </c>
+      <c r="S13" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="T13" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="U13" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="V13" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="W13" s="11">
         <v>400</v>
       </c>
-      <c r="D6" s="12">
+      <c r="X13" s="11">
         <v>400</v>
       </c>
-      <c r="E6" s="12">
-        <v>10</v>
-      </c>
-      <c r="F6" s="12">
-        <v>6</v>
-      </c>
-      <c r="G6" s="12">
-        <v>55</v>
-      </c>
-      <c r="H6" s="12">
-        <v>55</v>
-      </c>
-      <c r="I6" s="12">
-        <v>50</v>
-      </c>
-      <c r="J6" s="12">
+      <c r="Y13" s="11">
+        <v>1000</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>800</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>800</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>360</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>310</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>10</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>15</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>12</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>150</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>150</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>2800</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>2500</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>2300</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11">
+        <v>600</v>
+      </c>
+      <c r="D14" s="11">
+        <v>500</v>
+      </c>
+      <c r="E14" s="11">
+        <v>15</v>
+      </c>
+      <c r="F14" s="11">
+        <v>15</v>
+      </c>
+      <c r="G14" s="11">
+        <v>12</v>
+      </c>
+      <c r="H14" s="11">
+        <v>12</v>
+      </c>
+      <c r="I14" s="11">
+        <v>120</v>
+      </c>
+      <c r="J14" s="11">
+        <v>90</v>
+      </c>
+      <c r="K14" s="11">
+        <v>100</v>
+      </c>
+      <c r="L14" s="11">
+        <v>100</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="N14" s="11">
         <v>0.9</v>
       </c>
-      <c r="K6" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="O14" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="P14" s="11">
         <v>1</v>
       </c>
-      <c r="M6" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="N6" s="12">
+      <c r="Q14" s="11">
+        <v>16</v>
+      </c>
+      <c r="R14" s="11">
+        <v>14</v>
+      </c>
+      <c r="S14" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="T14" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="U14" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="V14" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="W14" s="11">
+        <v>400</v>
+      </c>
+      <c r="X14" s="11">
+        <v>400</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>1000</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>800</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>800</v>
+      </c>
+      <c r="AC14" s="11">
+        <v>360</v>
+      </c>
+      <c r="AD14" s="11">
+        <v>300</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="11">
+        <v>15</v>
+      </c>
+      <c r="AH14" s="11">
         <v>12</v>
       </c>
-      <c r="O6" s="12">
-        <v>11</v>
-      </c>
-      <c r="P6" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="R6" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="S6" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="T6" s="12">
-        <v>200</v>
-      </c>
-      <c r="U6" s="12">
-        <v>600</v>
-      </c>
-      <c r="V6" s="12">
-        <v>500</v>
-      </c>
-      <c r="W6" s="12">
-        <v>120</v>
-      </c>
-      <c r="X6" s="12">
-        <v>120</v>
-      </c>
-      <c r="Y6" s="12">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>10</v>
-      </c>
-      <c r="AA6" s="12">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="12">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="12">
-        <v>90</v>
-      </c>
-      <c r="AD6" s="12">
-        <v>2100</v>
-      </c>
-      <c r="AE6" s="12">
-        <v>1900</v>
-      </c>
-      <c r="AF6" s="12">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12">
-        <v>400</v>
-      </c>
-      <c r="D7" s="12">
-        <v>400</v>
-      </c>
-      <c r="E7" s="12">
-        <v>10</v>
-      </c>
-      <c r="F7" s="12">
-        <v>8</v>
-      </c>
-      <c r="G7" s="12">
-        <v>55</v>
-      </c>
-      <c r="H7" s="12">
-        <v>55</v>
-      </c>
-      <c r="I7" s="12">
-        <v>60</v>
-      </c>
-      <c r="J7" s="12">
-        <v>1</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="L7" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="M7" s="12">
-        <v>1</v>
-      </c>
-      <c r="N7" s="12">
-        <v>14</v>
-      </c>
-      <c r="O7" s="12">
-        <v>12</v>
-      </c>
-      <c r="P7" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="R7" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="S7" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="T7" s="12">
-        <v>250</v>
-      </c>
-      <c r="U7" s="12">
-        <v>800</v>
-      </c>
-      <c r="V7" s="12">
-        <v>600</v>
-      </c>
-      <c r="W7" s="12">
-        <v>170</v>
-      </c>
-      <c r="X7" s="12">
-        <v>170</v>
-      </c>
-      <c r="Y7" s="12">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="12">
-        <v>10</v>
-      </c>
-      <c r="AA7" s="12">
-        <v>8</v>
-      </c>
-      <c r="AB7" s="12">
-        <v>8</v>
-      </c>
-      <c r="AC7" s="12">
-        <v>100</v>
-      </c>
-      <c r="AD7" s="12">
-        <v>2400</v>
-      </c>
-      <c r="AE7" s="12">
-        <v>2200</v>
-      </c>
-      <c r="AF7" s="12">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12">
-        <v>500</v>
-      </c>
-      <c r="D8" s="12">
-        <v>500</v>
-      </c>
-      <c r="E8" s="12">
-        <v>10</v>
-      </c>
-      <c r="F8" s="12">
-        <v>10</v>
-      </c>
-      <c r="G8" s="12">
-        <v>60</v>
-      </c>
-      <c r="H8" s="12">
-        <v>60</v>
-      </c>
-      <c r="I8" s="12">
-        <v>80</v>
-      </c>
-      <c r="J8" s="12">
-        <v>1.1</v>
-      </c>
-      <c r="K8" s="12">
-        <v>1.1</v>
-      </c>
-      <c r="L8" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="M8" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="N8" s="12">
-        <v>15</v>
-      </c>
-      <c r="O8" s="12">
-        <v>15</v>
-      </c>
-      <c r="P8" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="R8" s="12">
-        <v>2</v>
-      </c>
-      <c r="S8" s="12">
-        <v>2.2</v>
-      </c>
-      <c r="T8" s="12">
-        <v>300</v>
-      </c>
-      <c r="U8" s="12">
-        <v>1000</v>
-      </c>
-      <c r="V8" s="12">
-        <v>800</v>
-      </c>
-      <c r="W8" s="12">
-        <v>230</v>
-      </c>
-      <c r="X8" s="12">
-        <v>230</v>
-      </c>
-      <c r="Y8" s="12">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="12">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="12">
-        <v>10</v>
-      </c>
-      <c r="AB8" s="12">
-        <v>10</v>
-      </c>
-      <c r="AC8" s="12">
-        <v>120</v>
-      </c>
-      <c r="AD8" s="12">
-        <v>2700</v>
-      </c>
-      <c r="AE8" s="12">
+      <c r="AI14" s="11">
+        <v>150</v>
+      </c>
+      <c r="AJ14" s="11">
+        <v>150</v>
+      </c>
+      <c r="AK14" s="11">
+        <v>2800</v>
+      </c>
+      <c r="AL14" s="11">
         <v>2500</v>
       </c>
-      <c r="AF8" s="12">
+      <c r="AM14" s="11">
         <v>2300</v>
       </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12">
-        <v>600</v>
-      </c>
-      <c r="D9" s="12">
-        <v>500</v>
-      </c>
-      <c r="E9" s="12">
-        <v>10</v>
-      </c>
-      <c r="F9" s="12">
-        <v>12</v>
-      </c>
-      <c r="G9" s="12">
-        <v>75</v>
-      </c>
-      <c r="H9" s="12">
-        <v>75</v>
-      </c>
-      <c r="I9" s="12">
-        <v>100</v>
-      </c>
-      <c r="J9" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="K9" s="12">
-        <v>1.1</v>
-      </c>
-      <c r="L9" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="M9" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="N9" s="12">
-        <v>18</v>
-      </c>
-      <c r="O9" s="12">
-        <v>15</v>
-      </c>
-      <c r="P9" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="R9" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="S9" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="T9" s="12">
-        <v>400</v>
-      </c>
-      <c r="U9" s="12">
-        <v>1200</v>
-      </c>
-      <c r="V9" s="12">
-        <v>1000</v>
-      </c>
-      <c r="W9" s="12">
-        <v>350</v>
-      </c>
-      <c r="X9" s="12">
-        <v>320</v>
-      </c>
-      <c r="Y9" s="12">
-        <v>15</v>
-      </c>
-      <c r="Z9" s="12">
-        <v>15</v>
-      </c>
-      <c r="AA9" s="12">
-        <v>15</v>
-      </c>
-      <c r="AB9" s="12">
-        <v>12</v>
-      </c>
-      <c r="AC9" s="12">
-        <v>150</v>
-      </c>
-      <c r="AD9" s="12">
-        <v>2800</v>
-      </c>
-      <c r="AE9" s="12">
-        <v>2500</v>
-      </c>
-      <c r="AF9" s="12">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12">
-        <v>700</v>
-      </c>
-      <c r="D10" s="12">
-        <v>500</v>
-      </c>
-      <c r="E10" s="12">
-        <v>10</v>
-      </c>
-      <c r="F10" s="12">
-        <v>13</v>
-      </c>
-      <c r="G10" s="12">
-        <v>75</v>
-      </c>
-      <c r="H10" s="12">
-        <v>75</v>
-      </c>
-      <c r="I10" s="12">
-        <v>100</v>
-      </c>
-      <c r="J10" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="K10" s="12">
-        <v>1.1</v>
-      </c>
-      <c r="L10" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="M10" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="N10" s="12">
-        <v>18</v>
-      </c>
-      <c r="O10" s="12">
-        <v>15</v>
-      </c>
-      <c r="P10" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="R10" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="S10" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="T10" s="12">
-        <v>400</v>
-      </c>
-      <c r="U10" s="12">
-        <v>1200</v>
-      </c>
-      <c r="V10" s="12">
-        <v>1000</v>
-      </c>
-      <c r="W10" s="12">
-        <v>390</v>
-      </c>
-      <c r="X10" s="12">
-        <v>330</v>
-      </c>
-      <c r="Y10" s="12">
-        <v>15</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>15</v>
-      </c>
-      <c r="AA10" s="12">
-        <v>15</v>
-      </c>
-      <c r="AB10" s="12">
-        <v>12</v>
-      </c>
-      <c r="AC10" s="12">
-        <v>150</v>
-      </c>
-      <c r="AD10" s="12">
-        <v>2800</v>
-      </c>
-      <c r="AE10" s="12">
-        <v>2500</v>
-      </c>
-      <c r="AF10" s="12">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12">
-        <v>600</v>
-      </c>
-      <c r="D11" s="12">
-        <v>500</v>
-      </c>
-      <c r="E11" s="12">
-        <v>10</v>
-      </c>
-      <c r="F11" s="12">
-        <v>12</v>
-      </c>
-      <c r="G11" s="12">
-        <v>120</v>
-      </c>
-      <c r="H11" s="12">
-        <v>90</v>
-      </c>
-      <c r="I11" s="12">
-        <v>100</v>
-      </c>
-      <c r="J11" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="L11" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="M11" s="12">
-        <v>1</v>
-      </c>
-      <c r="N11" s="12">
-        <v>16</v>
-      </c>
-      <c r="O11" s="12">
-        <v>14</v>
-      </c>
-      <c r="P11" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="R11" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="S11" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="T11" s="12">
-        <v>400</v>
-      </c>
-      <c r="U11" s="12">
-        <v>1000</v>
-      </c>
-      <c r="V11" s="12">
-        <v>800</v>
-      </c>
-      <c r="W11" s="12">
-        <v>380</v>
-      </c>
-      <c r="X11" s="12">
-        <v>320</v>
-      </c>
-      <c r="Y11" s="12">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="12">
-        <v>15</v>
-      </c>
-      <c r="AA11" s="12">
-        <v>15</v>
-      </c>
-      <c r="AB11" s="12">
-        <v>12</v>
-      </c>
-      <c r="AC11" s="12">
-        <v>150</v>
-      </c>
-      <c r="AD11" s="12">
-        <v>2800</v>
-      </c>
-      <c r="AE11" s="12">
-        <v>2500</v>
-      </c>
-      <c r="AF11" s="12">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12">
-        <v>600</v>
-      </c>
-      <c r="D12" s="12">
-        <v>500</v>
-      </c>
-      <c r="E12" s="12">
-        <v>10</v>
-      </c>
-      <c r="F12" s="12">
-        <v>12</v>
-      </c>
-      <c r="G12" s="12">
-        <v>120</v>
-      </c>
-      <c r="H12" s="12">
-        <v>90</v>
-      </c>
-      <c r="I12" s="12">
-        <v>100</v>
-      </c>
-      <c r="J12" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="L12" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="M12" s="12">
-        <v>1</v>
-      </c>
-      <c r="N12" s="12">
-        <v>16</v>
-      </c>
-      <c r="O12" s="12">
-        <v>14</v>
-      </c>
-      <c r="P12" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="Q12" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="R12" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="S12" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="T12" s="12">
-        <v>400</v>
-      </c>
-      <c r="U12" s="12">
-        <v>1000</v>
-      </c>
-      <c r="V12" s="12">
-        <v>800</v>
-      </c>
-      <c r="W12" s="12">
-        <v>380</v>
-      </c>
-      <c r="X12" s="12">
-        <v>320</v>
-      </c>
-      <c r="Y12" s="12">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="12">
-        <v>15</v>
-      </c>
-      <c r="AA12" s="12">
-        <v>15</v>
-      </c>
-      <c r="AB12" s="12">
-        <v>12</v>
-      </c>
-      <c r="AC12" s="12">
-        <v>150</v>
-      </c>
-      <c r="AD12" s="12">
-        <v>2800</v>
-      </c>
-      <c r="AE12" s="12">
-        <v>2500</v>
-      </c>
-      <c r="AF12" s="12">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12">
-        <v>600</v>
-      </c>
-      <c r="D13" s="12">
-        <v>500</v>
-      </c>
-      <c r="E13" s="12">
-        <v>15</v>
-      </c>
-      <c r="F13" s="12">
-        <v>12</v>
-      </c>
-      <c r="G13" s="12">
-        <v>120</v>
-      </c>
-      <c r="H13" s="12">
-        <v>90</v>
-      </c>
-      <c r="I13" s="12">
-        <v>100</v>
-      </c>
-      <c r="J13" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="L13" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="M13" s="12">
-        <v>1</v>
-      </c>
-      <c r="N13" s="12">
-        <v>16</v>
-      </c>
-      <c r="O13" s="12">
-        <v>14</v>
-      </c>
-      <c r="P13" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="R13" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="S13" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="T13" s="12">
-        <v>400</v>
-      </c>
-      <c r="U13" s="12">
-        <v>1000</v>
-      </c>
-      <c r="V13" s="12">
-        <v>800</v>
-      </c>
-      <c r="W13" s="12">
-        <v>360</v>
-      </c>
-      <c r="X13" s="12">
-        <v>310</v>
-      </c>
-      <c r="Y13" s="12">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="12">
-        <v>10</v>
-      </c>
-      <c r="AA13" s="12">
-        <v>15</v>
-      </c>
-      <c r="AB13" s="12">
-        <v>12</v>
-      </c>
-      <c r="AC13" s="12">
-        <v>150</v>
-      </c>
-      <c r="AD13" s="12">
-        <v>2800</v>
-      </c>
-      <c r="AE13" s="12">
-        <v>2500</v>
-      </c>
-      <c r="AF13" s="12">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12">
-        <v>600</v>
-      </c>
-      <c r="D14" s="12">
-        <v>500</v>
-      </c>
-      <c r="E14" s="12">
-        <v>15</v>
-      </c>
-      <c r="F14" s="12">
-        <v>12</v>
-      </c>
-      <c r="G14" s="12">
-        <v>120</v>
-      </c>
-      <c r="H14" s="12">
-        <v>90</v>
-      </c>
-      <c r="I14" s="12">
-        <v>100</v>
-      </c>
-      <c r="J14" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="L14" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="M14" s="12">
-        <v>1</v>
-      </c>
-      <c r="N14" s="12">
-        <v>16</v>
-      </c>
-      <c r="O14" s="12">
-        <v>14</v>
-      </c>
-      <c r="P14" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="Q14" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="R14" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="S14" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="T14" s="12">
-        <v>400</v>
-      </c>
-      <c r="U14" s="12">
-        <v>1000</v>
-      </c>
-      <c r="V14" s="12">
-        <v>800</v>
-      </c>
-      <c r="W14" s="12">
-        <v>360</v>
-      </c>
-      <c r="X14" s="12">
-        <v>300</v>
-      </c>
-      <c r="Y14" s="12">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="12">
-        <v>10</v>
-      </c>
-      <c r="AA14" s="12">
-        <v>15</v>
-      </c>
-      <c r="AB14" s="12">
-        <v>12</v>
-      </c>
-      <c r="AC14" s="12">
-        <v>150</v>
-      </c>
-      <c r="AD14" s="12">
-        <v>2800</v>
-      </c>
-      <c r="AE14" s="12">
-        <v>2500</v>
-      </c>
-      <c r="AF14" s="12">
+      <c r="AN14" s="11">
         <v>2300</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A1:AN1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/dietary_reference_intakes.xlsx
+++ b/dietary_reference_intakes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ganpeijie/Documents/GitHub/nutrition_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBBAE57-F7B8-2F43-9011-39C51AC0AF64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABE4F83-7C26-364F-97C7-CC54920F3309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="58">
   <si>
     <t>dietary_reference_intakes</t>
   </si>
@@ -137,13 +137,70 @@
   </si>
   <si>
     <t>71Y</t>
+  </si>
+  <si>
+    <t>男維生素A</t>
+  </si>
+  <si>
+    <t>男維生素D</t>
+  </si>
+  <si>
+    <t>男維生素E</t>
+  </si>
+  <si>
+    <t>男維生素K</t>
+  </si>
+  <si>
+    <t>男維生素C</t>
+  </si>
+  <si>
+    <t>男維生素B1</t>
+  </si>
+  <si>
+    <t>男維生素B2</t>
+  </si>
+  <si>
+    <t>男菸鹼素</t>
+  </si>
+  <si>
+    <t>男維生素B6</t>
+  </si>
+  <si>
+    <t>男維生素B12</t>
+  </si>
+  <si>
+    <t>男葉酸</t>
+  </si>
+  <si>
+    <t>男鈣</t>
+  </si>
+  <si>
+    <t>男磷</t>
+  </si>
+  <si>
+    <t>男鎂</t>
+  </si>
+  <si>
+    <t>男鐵</t>
+  </si>
+  <si>
+    <t>男鋅</t>
+  </si>
+  <si>
+    <t>男碘</t>
+  </si>
+  <si>
+    <t>男鉀</t>
+  </si>
+  <si>
+    <t>男鈉</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -159,6 +216,20 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -300,7 +371,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -339,6 +410,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1502,8 +1579,8 @@
   </sheetPr>
   <dimension ref="A1:JD14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AO9" sqref="AO9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1577,116 +1654,116 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+      <c r="C2" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>8</v>
+      <c r="M2" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>9</v>
+      <c r="O2" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>10</v>
+      <c r="Q2" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>11</v>
+      <c r="S2" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>12</v>
+      <c r="U2" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>13</v>
+      <c r="W2" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>14</v>
+      <c r="Y2" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>15</v>
+      <c r="AA2" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>16</v>
+      <c r="AC2" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>17</v>
+      <c r="AE2" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>18</v>
+      <c r="AG2" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>19</v>
+      <c r="AI2" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AK2" s="2" t="s">
-        <v>20</v>
+      <c r="AK2" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AM2" s="2" t="s">
-        <v>21</v>
+      <c r="AM2" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>21</v>
